--- a/NformTester/NformTester/keywordscripts/TST1042_DataLogging.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1042_DataLogging.xlsx
@@ -3639,13 +3639,7 @@
     <t>SingleAuto</t>
   </si>
   <si>
-    <t>10.146.85.10</t>
-  </si>
-  <si>
     <t>;Verify that user can log the data of this device.</t>
-  </si>
-  <si>
-    <t>"UPS_10.146.85.10"</t>
   </si>
   <si>
     <t>"2"</t>
@@ -3697,6 +3691,14 @@
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.146.88.10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"UPS_10.146.88.10"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4639,8 +4641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B6" activeCellId="1" sqref="B5 B6"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4722,7 +4724,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="15" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O2" s="11"/>
     </row>
@@ -4731,7 +4733,7 @@
         <v>751</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4759,7 +4761,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="15" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O3" s="11"/>
     </row>
@@ -4774,7 +4776,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
@@ -4792,7 +4794,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="15" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O4" s="11"/>
     </row>
@@ -4819,7 +4821,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O5" s="11"/>
     </row>
@@ -4834,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>569</v>
@@ -4847,14 +4849,14 @@
         <v>799</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O6" s="11"/>
     </row>
@@ -4869,7 +4871,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4881,7 +4883,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O7" s="11"/>
     </row>
@@ -4890,7 +4892,7 @@
         <v>758</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -4914,7 +4916,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O8" s="11"/>
     </row>
@@ -4947,7 +4949,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O9" s="11"/>
     </row>
@@ -4970,7 +4972,7 @@
         <v>56</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -4978,7 +4980,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O10" s="11"/>
     </row>
@@ -5009,7 +5011,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O11" s="11"/>
     </row>
@@ -5040,7 +5042,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O12" s="11"/>
     </row>
@@ -5071,7 +5073,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O13" s="11"/>
     </row>
@@ -5102,7 +5104,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O14" s="11"/>
     </row>
@@ -5133,7 +5135,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O15" s="11"/>
     </row>
@@ -5158,7 +5160,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="4"/>
@@ -5166,7 +5168,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O16" s="11"/>
     </row>
@@ -5191,7 +5193,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="4"/>
@@ -5199,7 +5201,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O17" s="11"/>
     </row>
@@ -5230,7 +5232,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O18" s="11"/>
     </row>
@@ -5263,7 +5265,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O19" s="11"/>
     </row>
@@ -5294,7 +5296,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O20" s="11"/>
     </row>
@@ -5325,7 +5327,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O21" s="11"/>
     </row>
@@ -5358,7 +5360,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O22" s="11"/>
     </row>
@@ -5373,7 +5375,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="4"/>
@@ -5385,7 +5387,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="15" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O23" s="11"/>
     </row>
@@ -5418,7 +5420,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O24" s="11"/>
     </row>
@@ -5451,7 +5453,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O25" s="11"/>
     </row>
@@ -5478,7 +5480,7 @@
         <v>56</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -5486,7 +5488,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O26" s="11"/>
     </row>
@@ -5519,7 +5521,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O27" s="11"/>
     </row>
@@ -5546,7 +5548,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O28" s="11"/>
     </row>
@@ -5567,10 +5569,10 @@
         <v>7</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J29" s="12">
         <v>2</v>
@@ -5579,7 +5581,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O29" s="11"/>
     </row>
@@ -5606,7 +5608,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O30" s="11"/>
     </row>
@@ -5633,7 +5635,7 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O31" s="11"/>
     </row>
@@ -5660,7 +5662,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O32" s="11"/>
     </row>
@@ -5669,7 +5671,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="4"/>
@@ -5681,7 +5683,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O33" s="11"/>
     </row>
@@ -5708,7 +5710,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O34" s="11"/>
     </row>
@@ -5735,7 +5737,7 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O35" s="11"/>
     </row>
@@ -5762,7 +5764,7 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O36" s="11"/>
     </row>
@@ -5783,10 +5785,10 @@
         <v>7</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J37" s="12">
         <v>180</v>
@@ -5795,7 +5797,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O37" s="11"/>
     </row>
@@ -5816,19 +5818,19 @@
         <v>7</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="16" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="O38" s="11"/>
     </row>
@@ -5849,10 +5851,10 @@
         <v>7</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J39" s="12">
         <v>10</v>
@@ -5861,7 +5863,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O39" s="11"/>
     </row>
@@ -5888,7 +5890,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O40" s="11"/>
     </row>
@@ -5915,7 +5917,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O41" s="11"/>
     </row>
@@ -5942,7 +5944,7 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O42" s="11"/>
     </row>
@@ -5951,7 +5953,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="4"/>
@@ -5963,7 +5965,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O43" s="11"/>
     </row>
@@ -5975,7 +5977,7 @@
         <v>789</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F44" s="4">
         <v>5</v>
@@ -5988,7 +5990,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O44" s="11"/>
     </row>
@@ -5997,7 +5999,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="4"/>
@@ -6009,7 +6011,7 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O45" s="11"/>
     </row>
@@ -6036,7 +6038,7 @@
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O46" s="11"/>
     </row>
@@ -6063,7 +6065,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O47" s="11"/>
     </row>
@@ -6084,7 +6086,7 @@
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="4"/>
@@ -6092,7 +6094,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O48" s="11"/>
     </row>
@@ -6119,7 +6121,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O49" s="11"/>
     </row>
@@ -6146,7 +6148,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O50" s="11"/>
     </row>
@@ -6173,7 +6175,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O51" s="11"/>
     </row>

--- a/NformTester/NformTester/keywordscripts/TST1042_DataLogging.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1042_DataLogging.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-900" yWindow="30" windowWidth="8625" windowHeight="7830"/>
@@ -1204,7 +1204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7322" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7322" uniqueCount="820">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3693,11 +3693,14 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.88.10</t>
+    <t>10.146.82.10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"UPS_10.146.88.10"</t>
+    <t>"UPS_10.146.82.10"</t>
+  </si>
+  <si>
+    <t>"UPS_10.146.82.10"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4641,8 +4644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4972,7 +4975,7 @@
         <v>56</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
